--- a/Id/Dataset/testData.xlsx
+++ b/Id/Dataset/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyami\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IdandBilling\Id\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1774594-EC5C-4B3C-B284-5DD9B5F81082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D178B3B-B8B8-46D7-A963-87F31B76D227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BBF07FC7-8D35-4B23-ACD8-AA8438736F42}"/>
+    <workbookView xWindow="-1320" yWindow="1644" windowWidth="17280" windowHeight="9324" xr2:uid="{BBF07FC7-8D35-4B23-ACD8-AA8438736F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,35 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>sl no.</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>Blood Group</t>
-  </si>
-  <si>
-    <t>Father's Name</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Contact No.</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
-  <si>
     <t>Raku</t>
   </si>
   <si>
@@ -112,6 +97,27 @@
   </si>
   <si>
     <t>Mimnu</t>
+  </si>
+  <si>
+    <t>image_placeholder.png</t>
+  </si>
+  <si>
+    <t>BloodGroup</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>ValidUpto</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+  </si>
+  <si>
+    <t>StudentName</t>
   </si>
 </sst>
 </file>
@@ -464,55 +470,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD75F7D-D8CE-482C-82D4-0EC90302A51B}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -521,250 +536,307 @@
         <v>36080</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>8787886919</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>36081</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>8787886920</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>36082</v>
       </c>
       <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>8787886921</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>36083</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I5">
         <v>8787886922</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>36084</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>8787886923</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>36085</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>8787886924</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1">
         <v>36086</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <v>8787886925</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>36087</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>8787886926</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
         <v>36088</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I10">
         <v>8787886927</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>36089</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <v>8787886928</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45666</v>
       </c>
     </row>
   </sheetData>
